--- a/biology/Médecine/1420_en_santé_et_médecine/1420_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1420_en_santé_et_médecine/1420_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1420_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1420_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1420 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1420_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1420_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation à Gênes en Ligurie, par le jurisconsulte Bartolomeo Bosco, de l'hôpital Notre-Dame de la Miséricorde (Ospedale di Santa Maria della Misericordia), dit hôpital de Pammatone (it) (Ospedale di Pammatone[1]).
-Construction par Bicci di Lorenzo du cloître dit « delle medicherie » (« des pharmacies ») de l'hôpital Santa Maria Nuova de Florence[2].
-Alphonse V, roi d'Aragon institue un tribunal de quatre magistrats chargés de contrôler et de surveiller la pratique médicale[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation à Gênes en Ligurie, par le jurisconsulte Bartolomeo Bosco, de l'hôpital Notre-Dame de la Miséricorde (Ospedale di Santa Maria della Misericordia), dit hôpital de Pammatone (it) (Ospedale di Pammatone).
+Construction par Bicci di Lorenzo du cloître dit « delle medicherie » (« des pharmacies ») de l'hôpital Santa Maria Nuova de Florence.
+Alphonse V, roi d'Aragon institue un tribunal de quatre magistrats chargés de contrôler et de surveiller la pratique médicale.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1420_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1420_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1419-1420 : Ugolino da Montecatini (c. 1345-1425) fait paraître le Tractatus de balneis, important traité d'hydrothérapie thermale[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1419-1420 : Ugolino da Montecatini (c. 1345-1425) fait paraître le Tractatus de balneis, important traité d'hydrothérapie thermale.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1420_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1420_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nicolas Barbaro (mort en 1494), chirurgien vénitien, connu pour avoir rédigé une chronique de la chute de Constantinople[5] dont il a été le témoin oculaire[6].
-Pere Pintor (ca) (mort en 1503), médecin espagnol, professeur à Valence, médecin du pape Alexandre VI, auteur de l'Aggregator sententiarum et curatione (1499) et du De morbo foedo et occulto, his temporibus affligente (1500[7]).
-Entre 1410 et 1420 : Paolo Bagellardo (it) (mort entre 1492 et 1494), professeur de philosophie et de médecine à Padoue, auteur en 1472 du Libellus de egritudinibus infantium (« Petit traité sur les maladies infantiles »), premier ouvrage de pédiatrie jamais imprimé[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nicolas Barbaro (mort en 1494), chirurgien vénitien, connu pour avoir rédigé une chronique de la chute de Constantinople dont il a été le témoin oculaire.
+Pere Pintor (ca) (mort en 1503), médecin espagnol, professeur à Valence, médecin du pape Alexandre VI, auteur de l'Aggregator sententiarum et curatione (1499) et du De morbo foedo et occulto, his temporibus affligente (1500).
+Entre 1410 et 1420 : Paolo Bagellardo (it) (mort entre 1492 et 1494), professeur de philosophie et de médecine à Padoue, auteur en 1472 du Libellus de egritudinibus infantium (« Petit traité sur les maladies infantiles »), premier ouvrage de pédiatrie jamais imprimé.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1420_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1420_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +623,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Février : Thomas de Saint-Pierre (né à une date inconnue), clerc originaire de Normandie, reçu maître en médecine à Paris, deux fois doyen de la faculté, médecin du roi Charles VI, proviseur du collège d'Harcourt[9].
-Pierre Bernicot (né à une date inconnue), maître en médecine, doyen de la faculté de médecine en 1414-1415, fait partie en 1419 de l'ambassade de l'université de Paris auprès du pape Martin V, lègue à sa mort à la faculté un manuscrit du Plusquam commentum super commentum Tegni Galeni de Torregiano (en) († c. 1320[10]).
-Nicholas Colnet (né à une date inconnue), clerc et médecin du roi d'Angleterre, membre du Merton College d'Oxford, accompagne le roi Henri V à Azincourt en France en 1415, lègue à sa mort à John Mayhew une copie du Lilium medicine de Bernard de Gordon[11].
-1419-1420 : Jean de Pise (né à une date inconnue), chirurgien puis médecin, reçu docteur en médecine à Paris en 1408, après avoir promis de ne plus exercer la chirurgie[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Février : Thomas de Saint-Pierre (né à une date inconnue), clerc originaire de Normandie, reçu maître en médecine à Paris, deux fois doyen de la faculté, médecin du roi Charles VI, proviseur du collège d'Harcourt.
+Pierre Bernicot (né à une date inconnue), maître en médecine, doyen de la faculté de médecine en 1414-1415, fait partie en 1419 de l'ambassade de l'université de Paris auprès du pape Martin V, lègue à sa mort à la faculté un manuscrit du Plusquam commentum super commentum Tegni Galeni de Torregiano (en) († c. 1320).
+Nicholas Colnet (né à une date inconnue), clerc et médecin du roi d'Angleterre, membre du Merton College d'Oxford, accompagne le roi Henri V à Azincourt en France en 1415, lègue à sa mort à John Mayhew une copie du Lilium medicine de Bernard de Gordon.
+1419-1420 : Jean de Pise (né à une date inconnue), chirurgien puis médecin, reçu docteur en médecine à Paris en 1408, après avoir promis de ne plus exercer la chirurgie.</t>
         </is>
       </c>
     </row>
